--- a/安全建设顺序-安全建设第四版.备份.xlsx
+++ b/安全建设顺序-安全建设第四版.备份.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="7"/>
+    <workbookView windowWidth="19200" windowHeight="7130" tabRatio="930" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="总览" sheetId="16" r:id="rId1"/>
@@ -2006,8 +2006,8 @@
   <sheetPr/>
   <dimension ref="A2:L2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.89090909090909" defaultRowHeight="14" outlineLevelRow="1"/>
@@ -3413,7 +3413,7 @@
   <sheetPr/>
   <dimension ref="A1:D29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
